--- a/data/output/Sydney League 1_R1_20250924.xlsx
+++ b/data/output/Sydney League 1_R1_20250924.xlsx
@@ -13,13 +13,18 @@
     <sheet name="Season MVP" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="BRAT Triathlon Club MVP" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Coogee Triathlon Club MVP" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Engadine Triathlon Club Inc MVP" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Hills Triathlon Club MVP" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Moore Performance Triathlon Club MVP" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Panthers Triathlon Club MVP" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Sydney South West Triathlon Club MVP" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Sydney Round 1 Sprint Points" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Sydney Round 1 Aquabike Points" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Engadine Triathlon Club MVP" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Engadine Triathlon Club Inc MVP" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="FILOZ TRIATHLON CLUB MVP" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Hills Triathlon Club MVP" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Moore Performance Triathlon Club MVP" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Northern Suburbs Triathlon Club MVP" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Panthers Triathlon Club MVP" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="South West Sydney Triathlon Club MVP" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="TriMob MVP" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Sydney Round 1 70.3 Points" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Sydney Round 1 Sprint Points" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Sydney Round 1 Aquabike Points" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -484,16 +489,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="E2" t="n">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="F2" t="n">
         <v>135</v>
@@ -506,16 +511,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="F3" t="n">
         <v>44</v>
@@ -524,23 +529,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Australian Chinese Dragon</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5">
@@ -553,13 +558,13 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
@@ -568,111 +573,111 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Engadine Triathlon Club</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F6" t="n">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Engadine Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>Australian Chinese Dragon</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>161</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hills Red Army</t>
+          <t>FilOz Triathlon Club</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>178</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FilOz Triathlon Club</t>
+          <t>South West Sydney Triathlon Club</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -682,16 +687,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
         <v>67</v>
@@ -700,7 +705,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>South West Sydney Triathlon Club</t>
+          <t>Hills Red Army</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -716,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13">
@@ -752,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,17 +790,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kelly COLLINS</t>
+          <t>David MCEWAN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TA115976</t>
+          <t>TA4244</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Female 45-49</t>
+          <t>Male 70-74</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -805,77 +810,77 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Christopher COOPER</t>
+          <t>Grace HAYWARD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TA11806</t>
+          <t>TA41979</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Male 70-74</t>
+          <t>Female 18-24</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mike HISER</t>
+          <t>Julie HOWLE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TA8704</t>
+          <t>TA7035</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Male 65-69</t>
+          <t>Female 50-54</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Luke HANNIGAN</t>
+          <t>Greg SMITH</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TA123638</t>
+          <t>TA8136</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Male 35-39</t>
+          <t>Male 60-64</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Carol IRVING</t>
+          <t>John PUZ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TA104227</t>
+          <t>TA94809</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Female 55-59</t>
+          <t>Male 60-64</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -885,60 +890,300 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ashok ANAND KUMAR</t>
+          <t>Harrison WOOD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TA143233</t>
+          <t>TA111779</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Male 35-39</t>
+          <t>Male 25-29</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Larissa LAWRENCE</t>
+          <t>Gavin TAIT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TA143378</t>
+          <t>TA126773</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Female 30-34</t>
+          <t>Male 50-54</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Grant MURRELL</t>
+          <t>Jodie HILL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TA135374</t>
+          <t>TA6850</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Male 45-49</t>
+          <t>Female 55-59</t>
         </is>
       </c>
       <c r="D9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Darren BRADING</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TA9215</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Male 60-64</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sanjay RADHAKRISHNAN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TA140439</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Male 18-24</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jasmine PATANKAR</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TA133347</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Female 18-24</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Darcy ANDREWS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TA125187</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Male 18-24</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Niall MURPHY</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TA33309</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rodrigo MATAMALA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TA142945</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Lorenzo RAGGHIANTI</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TA125553</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Matthew OSTLER</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TA70333</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Riley DORMAN</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TA142397</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Male 25-29</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sybrand VAN DYK</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TA81553</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Greg HILL</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TA6941</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Male 55-59</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Leigh REYNOLDS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TA93907</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -948,6 +1193,889 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TA Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Performance Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Thales DA SILVA SOUZA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TA109921</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Male 25-29</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tony GOLDEN</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TA3668</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Male 65-69</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nick TAYLOR</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TA18889</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Male 65-69</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>James NALDRETT</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TA136988</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sabine D'HAESELEER</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TA131107</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Female 55-59</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>George GRIGG</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TA139536</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Male 25-29</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gareth HOWITT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TA126545</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Male 45-49</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dan THOMAS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TA108518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Catherine WALLER</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TA121457</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Female 30-34</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Christopher DYSZEL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TA136912</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Daniel MOORE</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TA79003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Male 45-49</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TA Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Performance Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jodie STOCKS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TA88322</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Female 50-54</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tony THORNTON</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TA109579</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Georgia DEGOTARDI</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TA107652</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Female 18-24</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TA Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Performance Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Leon SHARP</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TA103203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Christopher COOPER</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TA11806</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Male 70-74</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mike HISER</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TA8704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Male 65-69</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>John HUGHES</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TA10981</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Kelly COLLINS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TA115976</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Female 45-49</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Darren POWELL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TA42929</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Male 55-59</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Luke HANNIGAN</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TA123638</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Male 35-39</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mark DEMPSEY</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TA126354</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Carol IRVING</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TA104227</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Female 55-59</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Julie JACKSON</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TA109700</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Female 55-59</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Joseph HILL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TA114358</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Male 45-49</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chris WARING</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TA9395</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Male 45-49</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Liam THURSTON</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TA124874</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Male 25-29</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ryan KEEVERS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TA130937</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Nicholas MCWHIRTER</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TA141897</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mateus WINER</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TA139096</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Jacob LIPSON</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TA125643</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Brent GAPES</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TA116307</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Richard ALLEN</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TA3394</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Daniel BARRON</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TA36243</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Andrew MACKIE</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TA87308</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Male 45-49</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ashok ANAND KUMAR</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TA143233</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Male 35-39</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Larissa LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TA143378</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Female 30-34</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Grant MURRELL</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TA135374</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Male 45-49</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1008,7 +2136,68 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TA Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Performance Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sam MILLEN</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TA122737</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1070,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1086,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1150,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -1166,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1182,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1198,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -1241,7 +2430,240 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Participation Points</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Performance Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Australian Chinese Dragon</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Engadine Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FilOz Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hills Red Army</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hunters Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Northern Suburbs Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>42</v>
+      </c>
+      <c r="D11" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>South West Sydney Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TriMob</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1527,16 +2949,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="E2" t="n">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="F2" t="n">
         <v>135</v>
@@ -1549,16 +2971,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="F3" t="n">
         <v>44</v>
@@ -1567,23 +2989,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Australian Chinese Dragon</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5">
@@ -1596,13 +3018,13 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
@@ -1611,111 +3033,111 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Engadine Triathlon Club</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F6" t="n">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Engadine Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>Australian Chinese Dragon</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>161</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hills Red Army</t>
+          <t>FilOz Triathlon Club</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>178</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FilOz Triathlon Club</t>
+          <t>South West Sydney Triathlon Club</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1725,16 +3147,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
         <v>67</v>
@@ -1743,7 +3165,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>South West Sydney Triathlon Club</t>
+          <t>Hills Red Army</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1759,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +3217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,17 +3270,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Christopher COOPER</t>
+          <t>David MCEWAN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TA11806</t>
+          <t>TA4244</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1868,12 +3290,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kelly COLLINS</t>
+          <t>Christopher COOPER</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TA115976</t>
+          <t>TA11806</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1888,12 +3310,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mike HISER</t>
+          <t>John HUGHES</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TA8704</t>
+          <t>TA10981</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1908,332 +3330,332 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tony GOLDEN</t>
+          <t>Mike HISER</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TA3668</t>
+          <t>TA8704</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>George GRIGG</t>
+          <t>Kelly COLLINS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TA139536</t>
+          <t>TA115976</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Greg SMITH</t>
+          <t>Leon SHARP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TA8136</t>
+          <t>TA103203</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>James NALDRETT</t>
+          <t>Hannah GUMBLEY</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TA136988</t>
+          <t>TA136961</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Carol IRVING</t>
+          <t>Grace HAYWARD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TA104227</t>
+          <t>TA41979</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Luke HANNIGAN</t>
+          <t>Thales DA SILVA SOUZA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TA123638</t>
+          <t>TA109921</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mark GARCIA</t>
+          <t>Nick TAYLOR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TA1927</t>
+          <t>TA18889</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gavin TAIT</t>
+          <t>Tony GOLDEN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TA126773</t>
+          <t>TA3668</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Craig PRINGLE</t>
+          <t>Darren POWELL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TA130229</t>
+          <t>TA42929</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dan THOMAS</t>
+          <t>Catijn SCHIERBEEK</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TA108518</t>
+          <t>TA136989</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Adam WICKS</t>
+          <t>Julie HOWLE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TA72316</t>
+          <t>TA7035</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ashok ANAND KUMAR</t>
+          <t>Kiera BATTEN</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TA143233</t>
+          <t>TA106413</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ahmad AGEEZ</t>
+          <t>George GRIGG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TA114760</t>
+          <t>TA139536</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sydney South West Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jordan AITKEN</t>
+          <t>Sabine D'HAESELEER</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TA81593</t>
+          <t>TA131107</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Engadine Triathlon Club Inc</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Grant MURRELL</t>
+          <t>James NALDRETT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TA135374</t>
+          <t>TA136988</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Larissa LAWRENCE</t>
+          <t>Greg SMITH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TA143378</t>
+          <t>TA8136</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Leigh REYNOLDS</t>
+          <t>John PUZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TA93907</t>
+          <t>TA94809</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2242,46 +3664,1526 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Michael WALLIS</t>
+          <t>Mark DEMPSEY</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TA116051</t>
+          <t>TA126354</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Luke HANNIGAN</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TA123638</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Carol IRVING</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TA104227</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mark GARCIA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TA1927</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jodie STOCKS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TA88322</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Northern Suburbs Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Harrison WOOD</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TA111779</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Gareth HOWITT</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TA126545</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Gavin TAIT</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TA126773</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tony THORNTON</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TA109579</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Northern Suburbs Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Craig PRINGLE</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TA130229</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jodie HILL</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TA6850</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Dan THOMAS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TA108518</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Darren BRADING</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TA9215</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Julie JACKSON</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TA109700</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Wiebke WESSELS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TA141816</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Adam WICKS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TA72316</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Eric POULIN</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TA120285</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Kristina KRAFT</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TA142443</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Grant MURRELL</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TA135374</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Georgia DEGOTARDI</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TA107652</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Northern Suburbs Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Bronte CALLAGHAN</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TA125583</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Brent GAPES</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TA116307</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ben LOWE</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TA138064</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ashok ANAND KUMAR</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TA143233</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chris WARING</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TA9395</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Catherine WALLER</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TA121457</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Craig ROBERTS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TA129928</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Christopher DYSZEL</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TA136912</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ahmad AGEEZ</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TA114760</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>South West Sydney Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Andrew MACKIE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TA87308</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Eugene TAN</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TA118493</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Daniel BARRON</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TA36243</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Darcy ANDREWS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TA125187</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Danny CULLEY</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TA132959</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Daniel MOORE</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TA79003</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Dennis CONTEMPLACION</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TA81210</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>FILOZ TRIATHLON CLUB</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jasmine ZAMAN</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TA135246</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jay KENNEDY</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TA80634</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Engadine Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jesper OLSEN</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TA133563</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jess CARSWELL</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TA140974</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Greg HILL</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TA6941</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Jacob LIPSON</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TA125643</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Jasmine PATANKAR</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TA133347</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>James QUINN-KUMAR</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TA140077</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Lotte SIBBALD</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TA140895</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Lorenzo RAGGHIANTI</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TA125553</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Liam THURSTON</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TA124874</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Leigh REYNOLDS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TA93907</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Larissa LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TA143378</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Laurent SAFFRE</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TA114234</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Jordan AITKEN</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TA81593</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Engadine Triathlon Club Inc</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Kane DRAPER</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TA124731</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Joseph HILL</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TA114358</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Jozef MCPHERSON</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TA118080</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Niall MURPHY</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TA33309</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Max TAYLOR</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TA135862</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Michael WALLIS</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TA116051</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Max HOONHOUT</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TA132222</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Matthew OSTLER</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TA70333</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Mateus WINER</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>TA139096</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Richard ALLEN</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TA3394</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Rachel KENNEDY</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TA80635</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Engadine Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Pete FERGUSON</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TA140185</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nicholas MCWHIRTER</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TA141897</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Nathan STONE</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TA135161</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Riley DORMAN</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TA142397</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Rodrigo MATAMALA</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TA142945</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Ryan KEEVERS</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TA130937</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Steven WONG</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TA132300</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Sanjay RADHAKRISHNAN</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TA140439</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sam MILLEN</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TA122737</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>TriMob</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>Sally KREBS</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>TA140856</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>BRAT Triathlon Club</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Thomas HUGHES</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TA141474</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sybrand VAN DYK</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TA81553</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Uma BARRETT</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TA132266</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Victor HUYNH</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TA130642</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2296,7 +5198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2349,17 +5251,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Christopher COOPER</t>
+          <t>David MCEWAN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TA11806</t>
+          <t>TA4244</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -2369,12 +5271,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kelly COLLINS</t>
+          <t>Christopher COOPER</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TA115976</t>
+          <t>TA11806</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2389,12 +5291,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mike HISER</t>
+          <t>John HUGHES</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TA8704</t>
+          <t>TA10981</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2409,332 +5311,332 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tony GOLDEN</t>
+          <t>Mike HISER</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TA3668</t>
+          <t>TA8704</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>George GRIGG</t>
+          <t>Kelly COLLINS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TA139536</t>
+          <t>TA115976</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Greg SMITH</t>
+          <t>Leon SHARP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TA8136</t>
+          <t>TA103203</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>James NALDRETT</t>
+          <t>Hannah GUMBLEY</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TA136988</t>
+          <t>TA136961</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Carol IRVING</t>
+          <t>Grace HAYWARD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TA104227</t>
+          <t>TA41979</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Luke HANNIGAN</t>
+          <t>Thales DA SILVA SOUZA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TA123638</t>
+          <t>TA109921</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mark GARCIA</t>
+          <t>Nick TAYLOR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TA1927</t>
+          <t>TA18889</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gavin TAIT</t>
+          <t>Tony GOLDEN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TA126773</t>
+          <t>TA3668</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Craig PRINGLE</t>
+          <t>Darren POWELL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TA130229</t>
+          <t>TA42929</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dan THOMAS</t>
+          <t>Catijn SCHIERBEEK</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TA108518</t>
+          <t>TA136989</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Adam WICKS</t>
+          <t>Julie HOWLE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TA72316</t>
+          <t>TA7035</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ashok ANAND KUMAR</t>
+          <t>Kiera BATTEN</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TA143233</t>
+          <t>TA106413</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ahmad AGEEZ</t>
+          <t>George GRIGG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TA114760</t>
+          <t>TA139536</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sydney South West Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jordan AITKEN</t>
+          <t>Sabine D'HAESELEER</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TA81593</t>
+          <t>TA131107</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Engadine Triathlon Club Inc</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Grant MURRELL</t>
+          <t>James NALDRETT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TA135374</t>
+          <t>TA136988</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Larissa LAWRENCE</t>
+          <t>Greg SMITH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TA143378</t>
+          <t>TA8136</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Leigh REYNOLDS</t>
+          <t>John PUZ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TA93907</t>
+          <t>TA94809</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2743,46 +5645,1526 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Michael WALLIS</t>
+          <t>Mark DEMPSEY</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TA116051</t>
+          <t>TA126354</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Luke HANNIGAN</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TA123638</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Carol IRVING</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TA104227</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mark GARCIA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TA1927</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jodie STOCKS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TA88322</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Northern Suburbs Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Harrison WOOD</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TA111779</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Gareth HOWITT</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TA126545</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Gavin TAIT</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TA126773</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tony THORNTON</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TA109579</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Northern Suburbs Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Craig PRINGLE</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TA130229</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jodie HILL</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TA6850</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Dan THOMAS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TA108518</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Darren BRADING</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TA9215</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Julie JACKSON</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TA109700</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Wiebke WESSELS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TA141816</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Adam WICKS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TA72316</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Eric POULIN</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TA120285</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Kristina KRAFT</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TA142443</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Grant MURRELL</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TA135374</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Georgia DEGOTARDI</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TA107652</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Northern Suburbs Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Bronte CALLAGHAN</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TA125583</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Brent GAPES</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TA116307</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ben LOWE</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TA138064</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ashok ANAND KUMAR</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TA143233</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chris WARING</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TA9395</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Catherine WALLER</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TA121457</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Craig ROBERTS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TA129928</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Christopher DYSZEL</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TA136912</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ahmad AGEEZ</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TA114760</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>South West Sydney Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Andrew MACKIE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TA87308</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Eugene TAN</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TA118493</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Daniel BARRON</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TA36243</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Darcy ANDREWS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TA125187</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Danny CULLEY</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TA132959</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Daniel MOORE</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TA79003</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Dennis CONTEMPLACION</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TA81210</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>FILOZ TRIATHLON CLUB</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jasmine ZAMAN</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TA135246</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jay KENNEDY</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TA80634</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Engadine Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jesper OLSEN</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TA133563</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jess CARSWELL</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TA140974</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Greg HILL</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TA6941</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Jacob LIPSON</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TA125643</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Jasmine PATANKAR</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TA133347</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>James QUINN-KUMAR</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TA140077</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Lotte SIBBALD</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TA140895</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Lorenzo RAGGHIANTI</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TA125553</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Liam THURSTON</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TA124874</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Leigh REYNOLDS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TA93907</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Larissa LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TA143378</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Laurent SAFFRE</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TA114234</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Jordan AITKEN</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TA81593</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Engadine Triathlon Club Inc</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Kane DRAPER</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TA124731</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Joseph HILL</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TA114358</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Jozef MCPHERSON</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TA118080</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Niall MURPHY</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TA33309</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Max TAYLOR</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TA135862</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Michael WALLIS</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TA116051</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Max HOONHOUT</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TA132222</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Matthew OSTLER</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TA70333</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Mateus WINER</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>TA139096</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Richard ALLEN</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TA3394</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Rachel KENNEDY</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TA80635</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Engadine Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Pete FERGUSON</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TA140185</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nicholas MCWHIRTER</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TA141897</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Nathan STONE</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TA135161</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Riley DORMAN</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TA142397</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Rodrigo MATAMALA</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TA142945</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Ryan KEEVERS</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TA130937</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Steven WONG</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TA132300</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Sanjay RADHAKRISHNAN</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TA140439</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sam MILLEN</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TA122737</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>TriMob</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>Sally KREBS</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>TA140856</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>BRAT Triathlon Club</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Thomas HUGHES</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TA141474</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sybrand VAN DYK</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TA81553</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Uma BARRETT</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TA132266</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Victor HUYNH</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TA130642</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2792,6 +7174,829 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TA Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Performance Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Kiera BATTEN</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TA106413</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Female 35-39</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kristina KRAFT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TA142443</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Female 35-39</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jasmine ZAMAN</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TA135246</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Female 25-29</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Uma BARRETT</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TA132266</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Female 18-24</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Max HOONHOUT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TA132222</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Male 25-29</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lotte SIBBALD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TA140895</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Female 30-34</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bronte CALLAGHAN</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TA125583</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Female 30-34</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Steven WONG</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TA132300</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Male 18-24</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jesper OLSEN</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TA133563</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jozef MCPHERSON</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TA118080</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Male 35-39</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kane DRAPER</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TA124731</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Victor HUYNH</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TA130642</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Male 35-39</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Craig ROBERTS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TA129928</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Eugene TAN</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TA118493</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Laurent SAFFRE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TA114234</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sally KREBS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TA140856</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Female 30-34</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TA Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Performance Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hannah GUMBLEY</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TA136961</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Female 25-29</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Andrew GIBIETIS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TA70149</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Male 35-39</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Catijn SCHIERBEEK</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TA136989</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Female 30-34</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mark GARCIA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TA1927</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Male 45-49</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Craig PRINGLE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TA130229</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Wiebke WESSELS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TA141816</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Female 35-39</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Eric POULIN</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TA120285</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Adam WICKS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TA72316</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jess CARSWELL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TA140974</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Female 18-24</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>James QUINN-KUMAR</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TA140077</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Male 35-39</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Thomas HUGHES</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TA141474</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Danny CULLEY</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TA132959</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ben LOWE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TA138064</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Nathan STONE</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TA135161</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Max TAYLOR</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TA135862</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Male 25-29</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Pete FERGUSON</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TA140185</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Michael WALLIS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TA116051</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TA Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Performance Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Rachel KENNEDY</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TA80635</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Female 40-44</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jay KENNEDY</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TA80634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Male 45-49</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2830,12 +8035,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sally KREBS</t>
+          <t>Jordan AITKEN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TA140856</t>
+          <t>TA81593</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2852,148 +8057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TA Number</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Performance Points</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Andrew GIBIETIS</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>TA70149</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Male 35-39</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mark GARCIA</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TA1927</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Male 45-49</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Craig PRINGLE</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TA130229</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Male 30-34</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Adam WICKS</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TA72316</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Male 40-44</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Michael WALLIS</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TA116051</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Male 40-44</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3032,243 +8096,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jordan AITKEN</t>
+          <t>Dennis CONTEMPLACION</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TA81593</t>
+          <t>TA81210</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Female 30-34</t>
+          <t>Male 50-54</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TA Number</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Performance Points</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Greg SMITH</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>TA8136</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Male 60-64</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Gavin TAIT</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TA126773</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Male 50-54</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Leigh REYNOLDS</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TA93907</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Male 50-54</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TA Number</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Performance Points</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Tony GOLDEN</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>TA3668</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Male 65-69</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>George GRIGG</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TA139536</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Male 25-29</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>James NALDRETT</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TA136988</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Male 30-34</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Dan THOMAS</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TA108518</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Male 50-54</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
